--- a/Python/TZTJBB.xlsx
+++ b/Python/TZTJBB.xlsx
@@ -19,72 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
-  <si>
-    <t>预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>P/F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789012345678901234567890123456789012345678901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    dd22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dfad222    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfadsf 213dfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好！@#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好dad341#@4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好dfadf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打1212dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>!!!!!</t>
   </si>
   <si>
@@ -119,9 +59,6 @@
   </si>
   <si>
     <t>``````</t>
-  </si>
-  <si>
-    <t>======</t>
   </si>
   <si>
     <t>{{{{{{{</t>
@@ -179,24 +116,68 @@
     <t>/html/body/div[1]/div[2]/div/div/div/form/div[2]/div[1]/div/div[4]/div[2]/a</t>
   </si>
   <si>
+    <t>预期-代理商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>*仅可以使用英文字母,数字, 下划线和减号, 字数范围4-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>1dd</t>
+  </si>
+  <si>
+    <t>11dd</t>
+  </si>
+  <si>
+    <t>11ddd</t>
+  </si>
+  <si>
+    <t>打1212dd</t>
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyzab1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1abcdefghijklmnopqrstuvwxyzab1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345678901</t>
   </si>
   <si>
     <t>_-_-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    dd22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfad222    </t>
+  </si>
+  <si>
+    <t>dfadsf 213dfa</t>
+  </si>
+  <si>
+    <t>你好dfadf</t>
+  </si>
+  <si>
+    <t>你好！@#</t>
+  </si>
+  <si>
+    <t>你好dad341#@4</t>
   </si>
 </sst>
 </file>
@@ -557,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,24 +560,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
       <c r="H2" s="3"/>
@@ -606,125 +587,125 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="3"/>
@@ -732,322 +713,321 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3"/>
+      <c r="E33" s="2"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D39" s="3"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3"/>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3"/>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>33</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E45"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E46"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47"/>
+        <v>33</v>
+      </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E48"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E49"/>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
